--- a/xlsx/坦尚尼亞_intext.xlsx
+++ b/xlsx/坦尚尼亞_intext.xlsx
@@ -29,7 +29,7 @@
     <t>坦桑尼亚国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_坦尚尼亞</t>
+    <t>体育运动_体育运动_南非_坦尚尼亞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A%E5%9B%BD%E5%BE%BD</t>
